--- a/enhanced_cleaned_data.xlsx
+++ b/enhanced_cleaned_data.xlsx
@@ -560,12 +560,12 @@
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>cleaned_biomarker</t>
+          <t>cleaned_test</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>confidence_biomarker</t>
+          <t>confidence_test</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>Aspartate transaminase (AST) - serum glutamate-oxaloacetate transaminase (SGOT)</t>
+          <t>Human Chorionic Gonadotropin (hCG) - beta specific; serum</t>
         </is>
       </c>
       <c r="Z2" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>Fasting blood glucose</t>
+          <t>Complete blood count; ethylenediaminetetraacetic acid</t>
         </is>
       </c>
       <c r="Z3" t="n">
@@ -862,7 +862,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>Free triiodothyronine (FT3)</t>
+          <t>Serum creatinine</t>
         </is>
       </c>
       <c r="Z4" t="n">
@@ -964,7 +964,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>Free triiodothyronine (FT3)</t>
+          <t>Hepatitis B surface antigen; serum</t>
         </is>
       </c>
       <c r="Z5" t="n">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>Vitamin B12</t>
+          <t>Human Chorionic Gonadotropin (hCG) - beta specific; serum</t>
         </is>
       </c>
       <c r="Z6" t="n">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>Amylase</t>
+          <t>Triglycerides; serum</t>
         </is>
       </c>
       <c r="Z7" t="n">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>Low-density lipoprotein cholesterol</t>
+          <t>Lipase</t>
         </is>
       </c>
       <c r="Z8" t="n">
@@ -1352,7 +1352,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>Creatinine, urine</t>
+          <t>High-density lipoprotein cholesterol</t>
         </is>
       </c>
       <c r="Z9" t="n">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>Albumin</t>
+          <t>Lipase is an enzyme that helps break down fats in the body.</t>
         </is>
       </c>
       <c r="Z10" t="n">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>A/G ratio (Albumin/Globulin ratio)</t>
+          <t>Low-density lipoprotein cholesterol; serum</t>
         </is>
       </c>
       <c r="Z11" t="n">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>Amylase</t>
+          <t>HIV test (types I and II); serum</t>
         </is>
       </c>
       <c r="Z12" t="n">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Direct bilirubin</t>
+          <t>Thyroid-stimulating hormone; serum</t>
         </is>
       </c>
       <c r="Z13" t="n">
@@ -1840,7 +1840,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>Amylase</t>
+          <t>Prolactin; serum level</t>
         </is>
       </c>
       <c r="Z14" t="n">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>Output: Urine protein (protein in urine)</t>
+          <t>Calcium; serum</t>
         </is>
       </c>
       <c r="Z15" t="n">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>A/G ratio (Albumin/Globulin ratio)</t>
+          <t>25-hydroxyvitamin D level; serum</t>
         </is>
       </c>
       <c r="Z16" t="n">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>Lipase is an enzyme that helps break down fats in the body.</t>
+          <t>Fasting blood sugar; plasma fluoride</t>
         </is>
       </c>
       <c r="Z17" t="n">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>Triglyceride</t>
+          <t>Lipase</t>
         </is>
       </c>
       <c r="Z18" t="n">
@@ -2342,7 +2342,7 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>HIV test result value</t>
+          <t>Sputum - Acid-Fast Bacillus culture</t>
         </is>
       </c>
       <c r="Z19" t="n">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>Hepatitis B surface antigen test value</t>
+          <t>Triglycerides; serum</t>
         </is>
       </c>
       <c r="Z20" t="n">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>Albumin</t>
+          <t>Thyroid-stimulating hormone; serum</t>
         </is>
       </c>
       <c r="Z21" t="n">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>Output: Urine protein (protein in urine)</t>
+          <t>Serum creatinine</t>
         </is>
       </c>
       <c r="Z22" t="n">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>Low-density lipoprotein cholesterol</t>
+          <t>Potassium; serum level</t>
         </is>
       </c>
       <c r="Z23" t="n">
@@ -2852,7 +2852,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>Creatinine, urine</t>
+          <t>High-density lipoprotein cholesterol</t>
         </is>
       </c>
       <c r="Z24" t="n">
@@ -2946,7 +2946,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>Vitamin B12</t>
+          <t>Vitamin B12; serum</t>
         </is>
       </c>
       <c r="Z25" t="n">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>Lipase is an enzyme that helps break down fats in the body.</t>
+          <t>Prolactin; serum level</t>
         </is>
       </c>
       <c r="Z26" t="n">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>Red cell distribution width</t>
+          <t>Serum creatinine</t>
         </is>
       </c>
       <c r="Z27" t="n">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>Output: hemoglobin</t>
+          <t>Potassium; serum level</t>
         </is>
       </c>
       <c r="Z28" t="n">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>Absolute Neutrophil Count (ANC)</t>
+          <t>Vitamin B12; serum</t>
         </is>
       </c>
       <c r="Z29" t="n">
@@ -3438,7 +3438,7 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>Amylase</t>
+          <t>Human Chorionic Gonadotropin - Beta Specific; Serum</t>
         </is>
       </c>
       <c r="Z30" t="n">
